--- a/卒研計画.xlsx
+++ b/卒研計画.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programing\研究室\音声認識テストbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC1AA8D-779A-4046-B0CE-9EBF453D4032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC2A10-2C01-4724-B046-78B625B89FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
   </bookViews>
   <sheets>
     <sheet name="卒研総合" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>TODO</t>
     <phoneticPr fontId="1"/>
@@ -504,6 +504,63 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>コノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先輩がやろうとしていたことを実現できた．細かな調整，調査あり</t>
+    <rPh sb="0" eb="2">
+      <t>センパイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズパイの性能上gTTSが良さそうだが音質の問題あり，事前に録音したボイスの利用も予定</t>
+    <rPh sb="5" eb="7">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オンシツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ロクオン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音声出力</t>
+    <rPh sb="0" eb="4">
+      <t>オンセイシュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -900,14 +957,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B316459A-5959-4472-BF69-0083F8A01E71}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -966,6 +1025,9 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -1011,13 +1073,16 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1171,13 +1236,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E210E1-4052-465C-A5DE-AB3561A763D8}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1193,6 +1262,39 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/卒研計画.xlsx
+++ b/卒研計画.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programing\研究室\音声認識テストbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC2A10-2C01-4724-B046-78B625B89FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C39DDE-A91C-4CAF-887C-42BBBC5C1E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
   </bookViews>
   <sheets>
     <sheet name="卒研総合" sheetId="1" r:id="rId1"/>
-    <sheet name="5-19進捗" sheetId="2" r:id="rId2"/>
-    <sheet name="5-26進捗" sheetId="3" r:id="rId3"/>
-    <sheet name="進捗テンプレ" sheetId="4" r:id="rId4"/>
+    <sheet name="進捗テンプレ" sheetId="4" r:id="rId2"/>
+    <sheet name="5-19進捗" sheetId="2" r:id="rId3"/>
+    <sheet name="5-26進捗" sheetId="3" r:id="rId4"/>
+    <sheet name="6-2進捗" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>TODO</t>
     <phoneticPr fontId="1"/>
@@ -562,6 +563,57 @@
     <rPh sb="0" eb="4">
       <t>オンセイシュツリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threadingのタイムアウトの機能状態を調査</t>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b+持ち帰って中身の確認</t>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pyでAIのAPI制御</t>
+    <rPh sb="9" eb="11">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルールのパラメータとかいろいろ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -608,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,6 +672,9 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B316459A-5959-4472-BF69-0083F8A01E71}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -969,7 +1024,7 @@
     <col min="8" max="8" width="86.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,8 +1049,14 @@
       <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I1" s="4">
+        <v>45810</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1006,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1089,11 @@
       <c r="H3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1043,7 +1107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1051,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1068,7 +1132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1099,7 +1163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1113,7 +1177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1127,7 +1191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1137,8 +1201,11 @@
       <c r="D11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1147,6 +1214,17 @@
       </c>
       <c r="D12" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1156,6 +1234,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B4C7D1-B457-46E1-830A-B72BAEE3515C}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A215C79F-485D-4750-A898-8F456D9C0F0F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1234,11 +1339,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E210E1-4052-465C-A5DE-AB3561A763D8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="161" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1303,17 +1408,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B4C7D1-B457-46E1-830A-B72BAEE3515C}">
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A558D-A798-427F-BBAA-B44A66D53863}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1322,6 +1431,33 @@
       </c>
       <c r="C1" t="s">
         <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/卒研計画.xlsx
+++ b/卒研計画.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programing\研究室\音声認識テストbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C39DDE-A91C-4CAF-887C-42BBBC5C1E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF0443B-5BB6-4FC0-8896-446C09AC8943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>TODO</t>
     <phoneticPr fontId="1"/>
@@ -614,6 +614,128 @@
   </si>
   <si>
     <t>ルールのパラメータとかいろいろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gTTSは思ったよりも悪くはない感じ</t>
+    <rPh sb="5" eb="6">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料APIの制限が壁でありGeminiが使えた</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謎だったtimeout部分を理解した，改善が必須</t>
+    <rPh sb="0" eb="1">
+      <t>ナゾ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムアウトの機能状態を把握して，改修方針を立てた</t>
+    <rPh sb="7" eb="11">
+      <t>キノウジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料APIの限界があり，一旦Geminiの使用は確認した</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gTTSで読み上げたが音質の問題はない</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オンシツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pyのバージョン上げたいがパッケージ関係でOSごとアプデがいる</t>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSのアップデートが必要であると確認した</t>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1012,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B316459A-5959-4472-BF69-0083F8A01E71}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1022,6 +1144,7 @@
     <col min="4" max="4" width="70.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="86.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -1092,6 +1215,9 @@
       <c r="I3" t="s">
         <v>21</v>
       </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -1148,6 +1274,9 @@
       <c r="H7" t="s">
         <v>45</v>
       </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -1204,6 +1333,9 @@
       <c r="I11" t="s">
         <v>21</v>
       </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -1214,6 +1346,9 @@
       </c>
       <c r="D12" t="s">
         <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1410,15 +1545,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A558D-A798-427F-BBAA-B44A66D53863}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1440,6 +1576,12 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
       <c r="D2" t="s">
         <v>47</v>
       </c>
@@ -1448,6 +1590,12 @@
       <c r="A3" t="s">
         <v>48</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
       <c r="D3" t="s">
         <v>49</v>
       </c>
@@ -1456,8 +1604,25 @@
       <c r="A4" t="s">
         <v>38</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
       <c r="D4" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/卒研計画.xlsx
+++ b/卒研計画.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programing\研究室\音声認識テストbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF0443B-5BB6-4FC0-8896-446C09AC8943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2354FFE6-C6D8-49DB-A618-3A7F77646637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
   </bookViews>
   <sheets>
     <sheet name="卒研総合" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="5-19進捗" sheetId="2" r:id="rId3"/>
     <sheet name="5-26進捗" sheetId="3" r:id="rId4"/>
     <sheet name="6-2進捗" sheetId="5" r:id="rId5"/>
+    <sheet name="6-9進捗" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>TODO</t>
     <phoneticPr fontId="1"/>
@@ -735,6 +736,68 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムアウトの調整(一定時間内にあるデータをアウトプット or threadingのタイムアウトなし or 途中中断して終了する)</t>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズパイOSのアップデート+VOICEVOX入れたい</t>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズパイOSの更新が必要</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム構築中</t>
+    <rPh sb="4" eb="6">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件での操作テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1132,22 +1195,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B316459A-5959-4472-BF69-0083F8A01E71}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="86.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,8 +1242,14 @@
       <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="4">
+        <v>45817</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +1260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1218,8 +1288,11 @@
       <c r="J3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1258,12 +1331,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1278,7 +1351,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1292,7 +1365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1306,12 +1379,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -1319,13 +1392,19 @@
       <c r="H10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>39</v>
@@ -1336,13 +1415,16 @@
       <c r="J11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -1351,7 +1433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1370,15 +1452,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B4C7D1-B457-46E1-830A-B72BAEE3515C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1387,6 +1469,9 @@
       </c>
       <c r="C1" t="s">
         <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1547,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A558D-A798-427F-BBAA-B44A66D53863}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1629,4 +1714,62 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61FBF23-E7D7-415F-8AFE-A61B88EE6FD5}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/卒研計画.xlsx
+++ b/卒研計画.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programing\研究室\音声認識テストbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2354FFE6-C6D8-49DB-A618-3A7F77646637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5F1EC2-2EBF-4935-AADB-1992C9A94EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>TODO</t>
     <phoneticPr fontId="1"/>
@@ -798,6 +798,74 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正中</t>
+    <rPh sb="0" eb="3">
+      <t>シュウセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施中</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSのインストールに手間取り今回はできていない</t>
+    <rPh sb="10" eb="13">
+      <t>テマド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSインストール完了，pythonのバージョン含め使用可能な状態を確認</t>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプトでAPIの細かな制御に成功・固定情報など課題あり</t>
+    <rPh sb="10" eb="11">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1197,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B316459A-5959-4472-BF69-0083F8A01E71}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1209,6 +1277,7 @@
     <col min="6" max="6" width="48.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="86.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
@@ -1291,6 +1360,9 @@
       <c r="K3" t="s">
         <v>21</v>
       </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -1398,6 +1470,9 @@
       <c r="K10" t="s">
         <v>21</v>
       </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -1417,6 +1492,9 @@
       </c>
       <c r="K11" t="s">
         <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1721,12 +1799,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="111.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1748,6 +1827,12 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
@@ -1756,6 +1841,12 @@
       <c r="A3" t="s">
         <v>48</v>
       </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
       <c r="D3" t="s">
         <v>62</v>
       </c>
@@ -1763,6 +1854,12 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>

--- a/卒研計画.xlsx
+++ b/卒研計画.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programing\研究室\音声認識テストbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5F1EC2-2EBF-4935-AADB-1992C9A94EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC870317-261A-4608-8545-74F744085F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
   </bookViews>
   <sheets>
     <sheet name="卒研総合" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="5-26進捗" sheetId="3" r:id="rId4"/>
     <sheet name="6-2進捗" sheetId="5" r:id="rId5"/>
     <sheet name="6-9進捗" sheetId="6" r:id="rId6"/>
+    <sheet name="6-16進捗" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
   <si>
     <t>TODO</t>
     <phoneticPr fontId="1"/>
@@ -866,6 +867,64 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pi4,5の購入依頼を出す，pi3b+で継続してテスト</t>
+    <rPh sb="6" eb="8">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>voicevoxの導入難易度が高く別方法を模索</t>
+    <rPh sb="9" eb="11">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいマイコンの注文，voicevox導入アプローチ変更</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAGを利用したテスト</t>
+    <rPh sb="4" eb="6">
+      <t>リヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1263,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B316459A-5959-4472-BF69-0083F8A01E71}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1278,9 +1337,10 @@
     <col min="8" max="8" width="86.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,8 +1377,14 @@
       <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M1" s="4">
+        <v>45824</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1378,7 +1444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1386,7 +1452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1403,7 +1469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1437,7 +1503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1451,7 +1517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1473,8 +1539,14 @@
       <c r="L10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1496,8 +1568,14 @@
       <c r="L11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1511,7 +1589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1798,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61FBF23-E7D7-415F-8AFE-A61B88EE6FD5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1869,4 +1947,53 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61145D77-C841-4094-9B50-453F718DF47E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/卒研計画.xlsx
+++ b/卒研計画.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programing\研究室\音声認識テストbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC870317-261A-4608-8545-74F744085F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7548044-6BCA-42EC-8B88-1BD99C64ACFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
   </bookViews>
   <sheets>
     <sheet name="卒研総合" sheetId="1" r:id="rId1"/>
     <sheet name="進捗テンプレ" sheetId="4" r:id="rId2"/>
-    <sheet name="5-19進捗" sheetId="2" r:id="rId3"/>
-    <sheet name="5-26進捗" sheetId="3" r:id="rId4"/>
-    <sheet name="6-2進捗" sheetId="5" r:id="rId5"/>
+    <sheet name="進捗6-30" sheetId="10" r:id="rId3"/>
+    <sheet name="進捗6-23" sheetId="9" r:id="rId4"/>
+    <sheet name="6-16進捗" sheetId="8" r:id="rId5"/>
     <sheet name="6-9進捗" sheetId="6" r:id="rId6"/>
-    <sheet name="6-16進捗" sheetId="8" r:id="rId7"/>
+    <sheet name="6-2進捗" sheetId="5" r:id="rId7"/>
+    <sheet name="5-26進捗" sheetId="3" r:id="rId8"/>
+    <sheet name="5-19進捗" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
   <si>
     <t>TODO</t>
     <phoneticPr fontId="1"/>
@@ -925,6 +927,100 @@
     <t>RAGを利用したテスト</t>
     <rPh sb="4" eb="6">
       <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAGのテストを行った</t>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pi4のセットアップ，pi3でvoicevoxのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>voicevox engineで「Hello World」と出力させたがどちらも長すぎる</t>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pi3,pi4ともにvoicevoxのテスト，生成時間長すぎ</t>
+    <rPh sb="23" eb="27">
+      <t>セイセイジカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成済</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pi5のセットアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pi5ならVOICEVOXは多少使えそうだが発熱問題がある</t>
+    <rPh sb="14" eb="16">
+      <t>タショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハツネツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時終了</t>
+    <rPh sb="0" eb="2">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fastText,BERTのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精度の問題，学習データ不足の問題がある</t>
+    <rPh sb="0" eb="2">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1322,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B316459A-5959-4472-BF69-0083F8A01E71}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1338,9 +1434,10 @@
     <col min="10" max="10" width="49.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="66" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,8 +1480,14 @@
       <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O1" s="4">
+        <v>45831</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1395,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1430,7 +1533,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1444,7 +1547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1452,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1469,7 +1572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1489,7 +1592,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1503,7 +1606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1517,7 +1620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1545,8 +1648,14 @@
       <c r="N10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1575,7 +1684,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1589,7 +1698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1637,19 +1746,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A215C79F-485D-4750-A898-8F456D9C0F0F}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C169CE4-8DFE-497C-986D-0D269A39B578}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1659,54 +1770,36 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1716,20 +1809,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E210E1-4052-465C-A5DE-AB3561A763D8}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED4FBC5-56CB-4DFF-ABF1-861D97336D77}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="153" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1739,43 +1833,38 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1785,18 +1874,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A558D-A798-427F-BBAA-B44A66D53863}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61145D77-C841-4094-9B50-453F718DF47E}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -1815,55 +1904,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1950,21 +2011,108 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61145D77-C841-4094-9B50-453F718DF47E}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A558D-A798-427F-BBAA-B44A66D53863}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E210E1-4052-465C-A5DE-AB3561A763D8}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1974,22 +2122,122 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A215C79F-485D-4750-A898-8F456D9C0F0F}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/卒研計画.xlsx
+++ b/卒研計画.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programing\研究室\音声認識テストbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7548044-6BCA-42EC-8B88-1BD99C64ACFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6395E2-E784-442A-A461-ABD8EEEFC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FC9E5803-3BB8-46E3-8F89-28C56EE814D3}"/>
   </bookViews>
   <sheets>
     <sheet name="卒研総合" sheetId="1" r:id="rId1"/>
     <sheet name="進捗テンプレ" sheetId="4" r:id="rId2"/>
-    <sheet name="進捗6-30" sheetId="10" r:id="rId3"/>
-    <sheet name="進捗6-23" sheetId="9" r:id="rId4"/>
-    <sheet name="6-16進捗" sheetId="8" r:id="rId5"/>
-    <sheet name="6-9進捗" sheetId="6" r:id="rId6"/>
-    <sheet name="6-2進捗" sheetId="5" r:id="rId7"/>
-    <sheet name="5-26進捗" sheetId="3" r:id="rId8"/>
-    <sheet name="5-19進捗" sheetId="2" r:id="rId9"/>
+    <sheet name="進捗7-7" sheetId="11" r:id="rId3"/>
+    <sheet name="進捗6-30" sheetId="10" r:id="rId4"/>
+    <sheet name="進捗6-23" sheetId="9" r:id="rId5"/>
+    <sheet name="6-16進捗" sheetId="8" r:id="rId6"/>
+    <sheet name="6-9進捗" sheetId="6" r:id="rId7"/>
+    <sheet name="6-2進捗" sheetId="5" r:id="rId8"/>
+    <sheet name="5-26進捗" sheetId="3" r:id="rId9"/>
+    <sheet name="5-19進捗" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
   <si>
     <t>TODO</t>
     <phoneticPr fontId="1"/>
@@ -785,16 +786,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システム構築中</t>
-    <rPh sb="4" eb="6">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>条件での操作テスト</t>
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
@@ -1002,10 +993,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fastText,BERTのテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>精度の問題，学習データ不足の問題がある</t>
     <rPh sb="0" eb="2">
       <t>セイド</t>
@@ -1021,6 +1008,135 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fastText,scikit-learnでテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価中</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウカチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部終了</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暫定完了</t>
+    <rPh sb="0" eb="2">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価中</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gemini API利用テストしたものをラズパイで実験</t>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gTTSをラズパイで実験</t>
+    <rPh sb="10" eb="12">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ不足やパラメータ調整で再調整</t>
+    <rPh sb="3" eb="5">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>サイチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API利用の形態であるためPi3でも十分に動く</t>
+    <rPh sb="3" eb="5">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pi3でも妥協できるくらいの生成速度が確認できた</t>
+    <rPh sb="5" eb="7">
+      <t>ダキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>セイセイソクド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精度向上したが処理時間に変化は見られなかった</t>
+    <rPh sb="0" eb="2">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1421,7 +1537,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1530,7 +1646,7 @@
         <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -1538,7 +1654,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1577,7 +1693,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1625,7 +1741,7 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -1640,19 +1756,19 @@
         <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M10" t="s">
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
         <v>21</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
@@ -1675,13 +1791,13 @@
         <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" t="s">
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
@@ -1689,7 +1805,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -1703,10 +1819,89 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A215C79F-485D-4750-A898-8F456D9C0F0F}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1746,18 +1941,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C169CE4-8DFE-497C-986D-0D269A39B578}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213C6A5-F576-4EA2-BD80-49426419A620}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -1776,30 +1969,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1809,6 +2016,69 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C169CE4-8DFE-497C-986D-0D269A39B578}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="182" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED4FBC5-56CB-4DFF-ABF1-861D97336D77}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1845,10 +2115,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1864,7 +2134,7 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +2143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61145D77-C841-4094-9B50-453F718DF47E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1910,10 +2180,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1924,7 +2194,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +2203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61FBF23-E7D7-415F-8AFE-A61B88EE6FD5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1967,10 +2237,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -1981,10 +2251,10 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
@@ -1998,10 +2268,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A558D-A798-427F-BBAA-B44A66D53863}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2098,7 +2368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E210E1-4052-465C-A5DE-AB3561A763D8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2165,83 +2435,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A215C79F-485D-4750-A898-8F456D9C0F0F}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>